--- a/coral_tpu/data/2023.09.03-benchmark-diagrams.xlsx
+++ b/coral_tpu/data/2023.09.03-benchmark-diagrams.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pavlenko\#_ОИПИ\Мои проекты\2021.04.14 Комплекс-СГ. Кореняко\_Отчеты\2023-3\Scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pavlenko\#_Projects\Python\2018.07.18_github_junkyard\coral_tpu\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82737E67-25E3-4C89-B9C3-71715DAC5F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA41E71B-4F63-4184-A972-349431517709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{4E7E1585-4B95-48A3-87D2-ADEF6E9667A0}"/>
   </bookViews>
@@ -33,35 +33,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
-    <t>memcpy, Мбайт/c</t>
-  </si>
-  <si>
-    <t>memset, Мбайт/c</t>
-  </si>
-  <si>
     <t>7-zip, MIPS</t>
   </si>
   <si>
     <t>Pi4</t>
   </si>
   <si>
-    <t>Троттлинг</t>
-  </si>
-  <si>
-    <t>Нет</t>
-  </si>
-  <si>
-    <t>Да</t>
-  </si>
-  <si>
     <t>CoolPi</t>
   </si>
   <si>
     <t>Desktop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тесты производительности
-Coral TPU </t>
   </si>
   <si>
     <t>CPU Stress</t>
@@ -82,32 +63,50 @@
     <t>CPU+TF</t>
   </si>
   <si>
-    <t>TPU+TF не работает</t>
-  </si>
-  <si>
-    <t>«sbc-bench.sh» скрипт Томаса Кайзера</t>
-  </si>
-  <si>
-    <t>мс</t>
-  </si>
-  <si>
     <t>Bogo Ops/s</t>
   </si>
   <si>
-    <t>Отклонение CPU Stress, %</t>
+    <t>Coral TPU benchmarks</t>
   </si>
   <si>
-    <t>Отклонение Matrix Math, %</t>
+    <t>ms</t>
   </si>
   <si>
-    <t>Отклонение Memory Copying, %</t>
+    <t>TPU+TF does not work</t>
+  </si>
+  <si>
+    <t>"sbc-bench.sh" Thomas Kaiser script for OBC</t>
+  </si>
+  <si>
+    <t>memcpy, MB/s</t>
+  </si>
+  <si>
+    <t>memset, MB/S</t>
+  </si>
+  <si>
+    <t>Throttling</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
   <si>
     <t>Phoronix Test Suite,
-«stress-ng» тесты</t>
+«stress-ng» tests</t>
   </si>
   <si>
-    <t>AES-256, 16кБ, MH/s</t>
+    <t>AES-256, 16KB, Mh/s</t>
+  </si>
+  <si>
+    <t>Deviation of Matrix Math, %</t>
+  </si>
+  <si>
+    <t>Deviation of CPU Stress, %</t>
+  </si>
+  <si>
+    <t>Deviation of Memory Copying, %</t>
   </si>
 </sst>
 </file>
@@ -214,12 +213,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1600"/>
-              <a:t>Тесты производительности </a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US" sz="1600"/>
-              <a:t>Coral TPU </a:t>
+              <a:t>Coral TPU benchmarks </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -228,8 +223,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.21842398661413823"/>
-          <c:y val="2.7777645003069371E-2"/>
+          <c:x val="0.386076934282854"/>
+          <c:y val="3.1775603257331454E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -753,9 +748,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>мс</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ms</a:t>
                 </a:r>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -931,13 +927,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1600"/>
-              <a:t>«sbc-bench.sh» </a:t>
+              <a:t>"sbc-bench.sh" Thomas Kaiser script</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1600"/>
-              <a:t>скрипт Томаса Кайзера</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1600"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -945,8 +936,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.29374610136071938"/>
-          <c:y val="1.3815939367072219E-2"/>
+          <c:x val="0.30286963044319126"/>
+          <c:y val="1.7132704683223074E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1072,16 +1063,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>memcpy, Мбайт/c</c:v>
+                  <c:v>memcpy, MB/s</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>memset, Мбайт/c</c:v>
+                  <c:v>memset, MB/S</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7-zip, MIPS</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>AES-256, 16кБ, MH/s</c:v>
+                  <c:v>AES-256, 16KB, Mh/s</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1203,16 +1194,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>memcpy, Мбайт/c</c:v>
+                  <c:v>memcpy, MB/s</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>memset, Мбайт/c</c:v>
+                  <c:v>memset, MB/S</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7-zip, MIPS</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>AES-256, 16кБ, MH/s</c:v>
+                  <c:v>AES-256, 16KB, Mh/s</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1334,16 +1325,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>memcpy, Мбайт/c</c:v>
+                  <c:v>memcpy, MB/s</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>memset, Мбайт/c</c:v>
+                  <c:v>memset, MB/S</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7-zip, MIPS</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>AES-256, 16кБ, MH/s</c:v>
+                  <c:v>AES-256, 16KB, Mh/s</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1617,13 +1608,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1600"/>
-              <a:t>Phoronix Test Suite, «stress-ng» </a:t>
+              <a:t>Phoronix Test Suite, «stress-ng» tests</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1600"/>
-              <a:t>тесты</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1600"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1631,8 +1617,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.29374610136071938"/>
-          <c:y val="1.3815939367072219E-2"/>
+          <c:x val="0.3350202357641025"/>
+          <c:y val="1.396160174750883E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4549,7 +4535,7 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4561,23 +4547,23 @@
     <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B2" s="4">
         <v>5.2</v>
@@ -4591,7 +4577,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4">
         <v>117.8</v>
@@ -4605,7 +4591,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4">
         <v>140.80000000000001</v>
@@ -4619,7 +4605,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -4627,7 +4613,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -4701,21 +4687,21 @@
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B20" s="4">
         <v>2469</v>
@@ -4729,7 +4715,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B21" s="4">
         <v>3077</v>
@@ -4743,7 +4729,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B22" s="4">
         <v>5720</v>
@@ -4757,7 +4743,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B23" s="4">
         <v>36</v>
@@ -4771,16 +4757,16 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -4855,21 +4841,21 @@
     </row>
     <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B41" s="4">
         <v>392</v>
@@ -4883,7 +4869,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B42" s="4">
         <v>1342</v>
@@ -4897,7 +4883,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B43" s="4">
         <v>395</v>
@@ -4911,7 +4897,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B45" s="5">
         <v>0.63</v>
@@ -4925,7 +4911,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B46" s="5">
         <v>3.21</v>
@@ -4939,7 +4925,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B47" s="5">
         <v>7.0000000000000007E-2</v>
@@ -4953,7 +4939,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
